--- a/team_specific_matrix/Portland St._B.xlsx
+++ b/team_specific_matrix/Portland St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2034632034632035</v>
+        <v>0.204778156996587</v>
       </c>
       <c r="C2">
-        <v>0.5021645021645021</v>
+        <v>0.5085324232081911</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02597402597402598</v>
+        <v>0.0204778156996587</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1341991341991342</v>
+        <v>0.1331058020477816</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1341991341991342</v>
+        <v>0.1331058020477816</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01626016260162602</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="C3">
-        <v>0.04878048780487805</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02439024390243903</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7642276422764228</v>
+        <v>0.7161290322580646</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1463414634146341</v>
+        <v>0.2129032258064516</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04761904761904762</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02380952380952381</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2619047619047619</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05294117647058823</v>
+        <v>0.05106382978723404</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005882352941176471</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05294117647058823</v>
+        <v>0.05531914893617021</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2352941176470588</v>
+        <v>0.2170212765957447</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03529411764705882</v>
+        <v>0.03404255319148936</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1823529411764706</v>
+        <v>0.1659574468085106</v>
       </c>
       <c r="R6">
-        <v>0.06470588235294118</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="S6">
-        <v>0.3705882352941177</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1197183098591549</v>
+        <v>0.1116751269035533</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02112676056338028</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04929577464788732</v>
+        <v>0.06091370558375635</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1619718309859155</v>
+        <v>0.16751269035533</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01408450704225352</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.147887323943662</v>
+        <v>0.1522842639593909</v>
       </c>
       <c r="R7">
-        <v>0.1126760563380282</v>
+        <v>0.09137055837563451</v>
       </c>
       <c r="S7">
-        <v>0.3732394366197183</v>
+        <v>0.3756345177664975</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.108359133126935</v>
+        <v>0.1032110091743119</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.021671826625387</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="E8">
-        <v>0.003095975232198143</v>
+        <v>0.002293577981651376</v>
       </c>
       <c r="F8">
-        <v>0.0804953560371517</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1238390092879257</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009287925696594427</v>
+        <v>0.006880733944954129</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1826625386996904</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="R8">
-        <v>0.08359133126934984</v>
+        <v>0.08027522935779817</v>
       </c>
       <c r="S8">
-        <v>0.3869969040247678</v>
+        <v>0.3761467889908257</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0625</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01875</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="E9">
-        <v>0.00625</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="F9">
-        <v>0.09375</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.14375</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.025</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.18125</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="R9">
-        <v>0.1125</v>
+        <v>0.1127450980392157</v>
       </c>
       <c r="S9">
-        <v>0.35625</v>
+        <v>0.3725490196078431</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1066536203522505</v>
+        <v>0.09834834834834835</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02641878669275929</v>
+        <v>0.02177177177177177</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07045009784735812</v>
+        <v>0.07807807807807808</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1164383561643836</v>
+        <v>0.1096096096096096</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03033268101761252</v>
+        <v>0.02552552552552553</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1986301369863014</v>
+        <v>0.2004504504504505</v>
       </c>
       <c r="R10">
-        <v>0.08806262230919765</v>
+        <v>0.08633633633633633</v>
       </c>
       <c r="S10">
-        <v>0.363013698630137</v>
+        <v>0.3798798798798799</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1497797356828194</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.105726872246696</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="K11">
-        <v>0.1982378854625551</v>
+        <v>0.2049689440993789</v>
       </c>
       <c r="L11">
-        <v>0.5242290748898678</v>
+        <v>0.5186335403726708</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02202643171806168</v>
+        <v>0.01863354037267081</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7563025210084033</v>
+        <v>0.7305389221556886</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2100840336134454</v>
+        <v>0.2395209580838323</v>
       </c>
       <c r="K12">
-        <v>0.008403361344537815</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02521008403361345</v>
+        <v>0.02395209580838323</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.631578947368421</v>
+        <v>0.66</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2894736842105263</v>
+        <v>0.26</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07894736842105263</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.006369426751592357</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1401273885350318</v>
+        <v>0.1699029126213592</v>
       </c>
       <c r="I15">
-        <v>0.03184713375796178</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="J15">
-        <v>0.3503184713375796</v>
+        <v>0.3300970873786408</v>
       </c>
       <c r="K15">
-        <v>0.08280254777070063</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02547770700636943</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05095541401273886</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3121019108280255</v>
+        <v>0.3155339805825243</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01342281879194631</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1208053691275168</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="I16">
-        <v>0.06040268456375839</v>
+        <v>0.06214689265536723</v>
       </c>
       <c r="J16">
-        <v>0.4765100671140939</v>
+        <v>0.4689265536723164</v>
       </c>
       <c r="K16">
-        <v>0.1275167785234899</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04026845637583892</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02013422818791946</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1409395973154362</v>
+        <v>0.1299435028248588</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02058823529411765</v>
+        <v>0.01548672566371681</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1470588235294118</v>
+        <v>0.1570796460176991</v>
       </c>
       <c r="I17">
-        <v>0.1176470588235294</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="J17">
-        <v>0.4529411764705882</v>
+        <v>0.4314159292035398</v>
       </c>
       <c r="K17">
-        <v>0.07647058823529412</v>
+        <v>0.09070796460176991</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02647058823529412</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="N17">
-        <v>0.002941176470588235</v>
+        <v>0.002212389380530973</v>
       </c>
       <c r="O17">
-        <v>0.05294117647058823</v>
+        <v>0.05088495575221239</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1029411764705882</v>
+        <v>0.1106194690265487</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01863354037267081</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2360248447204969</v>
+        <v>0.2281553398058253</v>
       </c>
       <c r="I18">
-        <v>0.1366459627329193</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="J18">
-        <v>0.391304347826087</v>
+        <v>0.3980582524271845</v>
       </c>
       <c r="K18">
-        <v>0.06211180124223602</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01863354037267081</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.01863354037267081</v>
+        <v>0.03398058252427184</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1180124223602484</v>
+        <v>0.116504854368932</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00909090909090909</v>
+        <v>0.01117734724292101</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2</v>
+        <v>0.1944858420268256</v>
       </c>
       <c r="I19">
-        <v>0.08686868686868687</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="J19">
-        <v>0.3757575757575757</v>
+        <v>0.3785394932935917</v>
       </c>
       <c r="K19">
-        <v>0.1090909090909091</v>
+        <v>0.1169895678092399</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0202020202020202</v>
+        <v>0.01937406855439642</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05656565656565657</v>
+        <v>0.05812220566318927</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1424242424242424</v>
+        <v>0.139344262295082</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Portland St._B.xlsx
+++ b/team_specific_matrix/Portland St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.204778156996587</v>
+        <v>0.1987767584097859</v>
       </c>
       <c r="C2">
-        <v>0.5085324232081911</v>
+        <v>0.5168195718654435</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0204778156996587</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1331058020477816</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1331058020477816</v>
+        <v>0.1376146788990826</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01290322580645161</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C3">
-        <v>0.03870967741935484</v>
+        <v>0.03977272727272727</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01935483870967742</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7161290322580646</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2129032258064516</v>
+        <v>0.2045454545454546</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06122448979591837</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02040816326530612</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P4">
-        <v>0.6326530612244898</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.2830188679245283</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05106382978723404</v>
+        <v>0.05179282868525897</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008510638297872341</v>
+        <v>0.00796812749003984</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05531914893617021</v>
+        <v>0.05577689243027888</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2170212765957447</v>
+        <v>0.2191235059760956</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03404255319148936</v>
+        <v>0.03187250996015936</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1659574468085106</v>
+        <v>0.1673306772908366</v>
       </c>
       <c r="R6">
-        <v>0.06808510638297872</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="S6">
-        <v>0.4</v>
+        <v>0.398406374501992</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1116751269035533</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02030456852791878</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06091370558375635</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.16751269035533</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02030456852791878</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1522842639593909</v>
+        <v>0.15</v>
       </c>
       <c r="R7">
-        <v>0.09137055837563451</v>
+        <v>0.1</v>
       </c>
       <c r="S7">
-        <v>0.3756345177664975</v>
+        <v>0.3545454545454546</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1032110091743119</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02293577981651376</v>
+        <v>0.02396514161220044</v>
       </c>
       <c r="E8">
-        <v>0.002293577981651376</v>
+        <v>0.002178649237472767</v>
       </c>
       <c r="F8">
-        <v>0.07798165137614679</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1284403669724771</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006880733944954129</v>
+        <v>0.008714596949891068</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2018348623853211</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="R8">
-        <v>0.08027522935779817</v>
+        <v>0.07625272331154684</v>
       </c>
       <c r="S8">
-        <v>0.3761467889908257</v>
+        <v>0.3856209150326798</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07843137254901961</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01470588235294118</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="E9">
-        <v>0.004901960784313725</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="F9">
-        <v>0.07843137254901961</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1323529411764706</v>
+        <v>0.1336405529953917</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04411764705882353</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1617647058823529</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="R9">
-        <v>0.1127450980392157</v>
+        <v>0.1059907834101382</v>
       </c>
       <c r="S9">
-        <v>0.3725490196078431</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09834834834834835</v>
+        <v>0.1037140854940434</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02177177177177177</v>
+        <v>0.02242466713384723</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07807807807807808</v>
+        <v>0.07778556412053259</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1096096096096096</v>
+        <v>0.1065171688857744</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02552552552552553</v>
+        <v>0.02522775052557814</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2004504504504505</v>
+        <v>0.1983181499649615</v>
       </c>
       <c r="R10">
-        <v>0.08633633633633633</v>
+        <v>0.08829712683952348</v>
       </c>
       <c r="S10">
-        <v>0.3798798798798799</v>
+        <v>0.3777154870357393</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1521739130434783</v>
+        <v>0.1606648199445983</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1055900621118012</v>
+        <v>0.0997229916897507</v>
       </c>
       <c r="K11">
-        <v>0.2049689440993789</v>
+        <v>0.2132963988919667</v>
       </c>
       <c r="L11">
-        <v>0.5186335403726708</v>
+        <v>0.5069252077562327</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01863354037267081</v>
+        <v>0.01939058171745152</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7305389221556886</v>
+        <v>0.7377049180327869</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2395209580838323</v>
+        <v>0.2349726775956284</v>
       </c>
       <c r="K12">
-        <v>0.005988023952095809</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02395209580838323</v>
+        <v>0.02185792349726776</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.66</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.26</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08</v>
+        <v>0.09433962264150944</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009708737864077669</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1699029126213592</v>
+        <v>0.1576576576576577</v>
       </c>
       <c r="I15">
-        <v>0.03883495145631068</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="J15">
-        <v>0.3300970873786408</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="K15">
-        <v>0.07281553398058252</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02427184466019417</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03883495145631068</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3155339805825243</v>
+        <v>0.3198198198198198</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01694915254237288</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1468926553672316</v>
+        <v>0.1457286432160804</v>
       </c>
       <c r="I16">
-        <v>0.06214689265536723</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="J16">
-        <v>0.4689265536723164</v>
+        <v>0.4522613065326633</v>
       </c>
       <c r="K16">
-        <v>0.1242937853107345</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03389830508474576</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.01694915254237288</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1299435028248588</v>
+        <v>0.135678391959799</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01548672566371681</v>
+        <v>0.01464435146443515</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1570796460176991</v>
+        <v>0.1527196652719665</v>
       </c>
       <c r="I17">
-        <v>0.1150442477876106</v>
+        <v>0.1129707112970711</v>
       </c>
       <c r="J17">
-        <v>0.4314159292035398</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="K17">
-        <v>0.09070796460176991</v>
+        <v>0.0899581589958159</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02654867256637168</v>
+        <v>0.02719665271966527</v>
       </c>
       <c r="N17">
-        <v>0.002212389380530973</v>
+        <v>0.002092050209205021</v>
       </c>
       <c r="O17">
-        <v>0.05088495575221239</v>
+        <v>0.04811715481171548</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1106194690265487</v>
+        <v>0.1171548117154812</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01456310679611651</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2281553398058253</v>
+        <v>0.2152466367713005</v>
       </c>
       <c r="I18">
-        <v>0.1262135922330097</v>
+        <v>0.1255605381165919</v>
       </c>
       <c r="J18">
-        <v>0.3980582524271845</v>
+        <v>0.4035874439461883</v>
       </c>
       <c r="K18">
-        <v>0.05825242718446602</v>
+        <v>0.08071748878923767</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02427184466019417</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03398058252427184</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.116504854368932</v>
+        <v>0.1076233183856502</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01117734724292101</v>
+        <v>0.01035911602209945</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1944858420268256</v>
+        <v>0.1926795580110497</v>
       </c>
       <c r="I19">
-        <v>0.08196721311475409</v>
+        <v>0.08011049723756906</v>
       </c>
       <c r="J19">
-        <v>0.3785394932935917</v>
+        <v>0.3791436464088398</v>
       </c>
       <c r="K19">
-        <v>0.1169895678092399</v>
+        <v>0.1187845303867403</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01937406855439642</v>
+        <v>0.01933701657458563</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05812220566318927</v>
+        <v>0.05939226519337017</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.139344262295082</v>
+        <v>0.1401933701657458</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Portland St._B.xlsx
+++ b/team_specific_matrix/Portland St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1987767584097859</v>
+        <v>0.1976047904191617</v>
       </c>
       <c r="C2">
-        <v>0.5168195718654435</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01834862385321101</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1284403669724771</v>
+        <v>0.1287425149700599</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1376146788990826</v>
+        <v>0.1347305389221557</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01136363636363636</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C3">
-        <v>0.03977272727272727</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01704545454545454</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7272727272727273</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2045454545454546</v>
+        <v>0.2087912087912088</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05179282868525897</v>
+        <v>0.04942965779467681</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00796812749003984</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05577689243027888</v>
+        <v>0.05703422053231939</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2191235059760956</v>
+        <v>0.2167300380228137</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03187250996015936</v>
+        <v>0.03422053231939164</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1673306772908366</v>
+        <v>0.1673003802281369</v>
       </c>
       <c r="R6">
-        <v>0.06772908366533864</v>
+        <v>0.07224334600760456</v>
       </c>
       <c r="S6">
-        <v>0.398406374501992</v>
+        <v>0.3954372623574144</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1272727272727273</v>
+        <v>0.1222707423580786</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01818181818181818</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06363636363636363</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1636363636363636</v>
+        <v>0.1703056768558952</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02272727272727273</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.15</v>
+        <v>0.148471615720524</v>
       </c>
       <c r="R7">
-        <v>0.1</v>
+        <v>0.09606986899563319</v>
       </c>
       <c r="S7">
-        <v>0.3545454545454546</v>
+        <v>0.3449781659388647</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1045751633986928</v>
+        <v>0.1054852320675106</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02396514161220044</v>
+        <v>0.02320675105485232</v>
       </c>
       <c r="E8">
-        <v>0.002178649237472767</v>
+        <v>0.002109704641350211</v>
       </c>
       <c r="F8">
-        <v>0.07843137254901961</v>
+        <v>0.08016877637130802</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1241830065359477</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008714596949891068</v>
+        <v>0.01054852320675105</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.196078431372549</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="R8">
-        <v>0.07625272331154684</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="S8">
-        <v>0.3856209150326798</v>
+        <v>0.3860759493670886</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07834101382488479</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01382488479262673</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="E9">
-        <v>0.004608294930875576</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="F9">
-        <v>0.07373271889400922</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1336405529953917</v>
+        <v>0.1294642857142857</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04147465437788019</v>
+        <v>0.04017857142857143</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1612903225806452</v>
+        <v>0.1651785714285714</v>
       </c>
       <c r="R9">
-        <v>0.1059907834101382</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="S9">
-        <v>0.3870967741935484</v>
+        <v>0.3839285714285715</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1037140854940434</v>
+        <v>0.1034246575342466</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02242466713384723</v>
+        <v>0.02191780821917808</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07778556412053259</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1065171688857744</v>
+        <v>0.1047945205479452</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02522775052557814</v>
+        <v>0.02534246575342466</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1983181499649615</v>
+        <v>0.1958904109589041</v>
       </c>
       <c r="R10">
-        <v>0.08829712683952348</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="S10">
-        <v>0.3777154870357393</v>
+        <v>0.3828767123287671</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1606648199445983</v>
+        <v>0.1613756613756614</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0997229916897507</v>
+        <v>0.1084656084656085</v>
       </c>
       <c r="K11">
-        <v>0.2132963988919667</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="L11">
-        <v>0.5069252077562327</v>
+        <v>0.4947089947089947</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01939058171745152</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7377049180327869</v>
+        <v>0.7433155080213903</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2349726775956284</v>
+        <v>0.2299465240641711</v>
       </c>
       <c r="K12">
-        <v>0.00546448087431694</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02185792349726776</v>
+        <v>0.0213903743315508</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6415094339622641</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2641509433962264</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09433962264150944</v>
+        <v>0.08928571428571429</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01351351351351351</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1576576576576577</v>
+        <v>0.1528384279475982</v>
       </c>
       <c r="I15">
-        <v>0.03603603603603604</v>
+        <v>0.03493449781659388</v>
       </c>
       <c r="J15">
-        <v>0.3378378378378378</v>
+        <v>0.3275109170305677</v>
       </c>
       <c r="K15">
-        <v>0.07207207207207207</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02252252252252252</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04054054054054054</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3198198198198198</v>
+        <v>0.3275109170305677</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02512562814070352</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1457286432160804</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="I16">
-        <v>0.07035175879396985</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="J16">
-        <v>0.4522613065326633</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="K16">
-        <v>0.1256281407035176</v>
+        <v>0.1225490196078431</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03015075376884422</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.01507537688442211</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.135678391959799</v>
+        <v>0.142156862745098</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01464435146443515</v>
+        <v>0.01431492842535787</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1527196652719665</v>
+        <v>0.1574642126789366</v>
       </c>
       <c r="I17">
-        <v>0.1129707112970711</v>
+        <v>0.1104294478527607</v>
       </c>
       <c r="J17">
-        <v>0.4351464435146444</v>
+        <v>0.4335378323108384</v>
       </c>
       <c r="K17">
-        <v>0.0899581589958159</v>
+        <v>0.08793456032719836</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02719665271966527</v>
+        <v>0.02862985685071575</v>
       </c>
       <c r="N17">
-        <v>0.002092050209205021</v>
+        <v>0.002044989775051125</v>
       </c>
       <c r="O17">
-        <v>0.04811715481171548</v>
+        <v>0.049079754601227</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1171548117154812</v>
+        <v>0.1165644171779141</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01345291479820628</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2152466367713005</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="I18">
-        <v>0.1255605381165919</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="J18">
-        <v>0.4035874439461883</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="K18">
-        <v>0.08071748878923767</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02242152466367713</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03139013452914798</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1076233183856502</v>
+        <v>0.1082251082251082</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01035911602209945</v>
+        <v>0.01131824234354194</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1926795580110497</v>
+        <v>0.1917443408788282</v>
       </c>
       <c r="I19">
-        <v>0.08011049723756906</v>
+        <v>0.08189081225033289</v>
       </c>
       <c r="J19">
-        <v>0.3791436464088398</v>
+        <v>0.374167776298269</v>
       </c>
       <c r="K19">
-        <v>0.1187845303867403</v>
+        <v>0.1191744340878828</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01933701657458563</v>
+        <v>0.01930758988015979</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05939226519337017</v>
+        <v>0.05858854860186418</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1401933701657458</v>
+        <v>0.1438082556591212</v>
       </c>
     </row>
   </sheetData>
